--- a/biology/Botanique/Jardin_fruitier/Jardin_fruitier.xlsx
+++ b/biology/Botanique/Jardin_fruitier/Jardin_fruitier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jardins fruitiers sont des jardins où l'on cultive des fruits, des vergers.
 Il en existe de très nombreux à travers le monde dont certains sont très connus ou ont reçu des labels.
@@ -512,7 +524,9 @@
           <t>Jardins fruitiers labellisés jardin remarquable</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jardins fruitiers de Laquenexy</t>
         </is>
@@ -542,11 +556,13 @@
           <t>Vergers visitables en France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'orangerie du château de Versailles
-Le verger du jardin du Luxembourg à Paris qui comporte plus de six cents variétés de pommes et de poires[1].
-Le verger Conservatoire des Prunes et Mirabelle de Lorraine[2]
+Le verger du jardin du Luxembourg à Paris qui comporte plus de six cents variétés de pommes et de poires.
+Le verger Conservatoire des Prunes et Mirabelle de Lorraine
 plus modestement, les vergers de pommiers, poiriers et cormiers des jardins du prieuré d'Orsan</t>
         </is>
       </c>
